--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_64ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_64ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1627,28 +1627,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>363.7867694256065</v>
+        <v>461.67198212909</v>
       </c>
       <c r="AB2" t="n">
-        <v>497.7491070676915</v>
+        <v>631.6799734794052</v>
       </c>
       <c r="AC2" t="n">
-        <v>450.2446308844096</v>
+        <v>571.3933233789411</v>
       </c>
       <c r="AD2" t="n">
-        <v>363786.7694256065</v>
+        <v>461671.98212909</v>
       </c>
       <c r="AE2" t="n">
-        <v>497749.1070676915</v>
+        <v>631679.9734794053</v>
       </c>
       <c r="AF2" t="n">
         <v>7.948827465180374e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.74609375</v>
       </c>
       <c r="AH2" t="n">
-        <v>450244.6308844096</v>
+        <v>571393.323378941</v>
       </c>
     </row>
     <row r="3">
@@ -1733,28 +1733,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>233.184688750263</v>
+        <v>301.6370178349999</v>
       </c>
       <c r="AB3" t="n">
-        <v>319.0535785303817</v>
+        <v>412.7130750878937</v>
       </c>
       <c r="AC3" t="n">
-        <v>288.6035527900466</v>
+        <v>373.3243184479432</v>
       </c>
       <c r="AD3" t="n">
-        <v>233184.688750263</v>
+        <v>301637.0178349999</v>
       </c>
       <c r="AE3" t="n">
-        <v>319053.5785303817</v>
+        <v>412713.0750878937</v>
       </c>
       <c r="AF3" t="n">
         <v>1.106861929542723e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.1796875</v>
       </c>
       <c r="AH3" t="n">
-        <v>288603.5527900466</v>
+        <v>373324.3184479432</v>
       </c>
     </row>
   </sheetData>
@@ -2030,28 +2030,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>269.1384103743774</v>
+        <v>346.5154837675379</v>
       </c>
       <c r="AB2" t="n">
-        <v>368.2470466228969</v>
+        <v>474.1177720749748</v>
       </c>
       <c r="AC2" t="n">
-        <v>333.1020653311829</v>
+        <v>428.8686373366108</v>
       </c>
       <c r="AD2" t="n">
-        <v>269138.4103743774</v>
+        <v>346515.4837675379</v>
       </c>
       <c r="AE2" t="n">
-        <v>368247.0466228969</v>
+        <v>474117.7720749748</v>
       </c>
       <c r="AF2" t="n">
         <v>1.057614909201911e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.23697916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>333102.0653311829</v>
+        <v>428868.6373366108</v>
       </c>
     </row>
     <row r="3">
@@ -2136,28 +2136,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>229.1720948145582</v>
+        <v>306.5823225966452</v>
       </c>
       <c r="AB3" t="n">
-        <v>313.5633704844024</v>
+        <v>419.4794592342251</v>
       </c>
       <c r="AC3" t="n">
-        <v>283.6373224944185</v>
+        <v>379.4449283880285</v>
       </c>
       <c r="AD3" t="n">
-        <v>229172.0948145582</v>
+        <v>306582.3225966452</v>
       </c>
       <c r="AE3" t="n">
-        <v>313563.3704844024</v>
+        <v>419479.4592342251</v>
       </c>
       <c r="AF3" t="n">
         <v>1.175104229438987e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.61588541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>283637.3224944185</v>
+        <v>379444.9283880285</v>
       </c>
     </row>
   </sheetData>
@@ -2433,28 +2433,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>270.2647890241647</v>
+        <v>354.3968048739989</v>
       </c>
       <c r="AB2" t="n">
-        <v>369.7882075838548</v>
+        <v>484.9013433121827</v>
       </c>
       <c r="AC2" t="n">
-        <v>334.4961400530599</v>
+        <v>438.6230396697769</v>
       </c>
       <c r="AD2" t="n">
-        <v>270264.7890241647</v>
+        <v>354396.8048739989</v>
       </c>
       <c r="AE2" t="n">
-        <v>369788.2075838548</v>
+        <v>484901.3433121827</v>
       </c>
       <c r="AF2" t="n">
         <v>1.329589837083263e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.02734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>334496.1400530599</v>
+        <v>438623.0396697769</v>
       </c>
     </row>
   </sheetData>
@@ -2730,28 +2730,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>245.8646494280333</v>
+        <v>321.6578906481631</v>
       </c>
       <c r="AB2" t="n">
-        <v>336.402860130083</v>
+        <v>440.1065165294348</v>
       </c>
       <c r="AC2" t="n">
-        <v>304.2970433037476</v>
+        <v>398.1033682852402</v>
       </c>
       <c r="AD2" t="n">
-        <v>245864.6494280333</v>
+        <v>321657.890648163</v>
       </c>
       <c r="AE2" t="n">
-        <v>336402.8601300829</v>
+        <v>440106.5165294348</v>
       </c>
       <c r="AF2" t="n">
         <v>1.288719705504019e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.10677083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>304297.0433037475</v>
+        <v>398103.3682852401</v>
       </c>
     </row>
   </sheetData>
@@ -3027,28 +3027,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>298.5329565882268</v>
+        <v>400.262466272395</v>
       </c>
       <c r="AB2" t="n">
-        <v>408.4659615485414</v>
+        <v>547.656764687641</v>
       </c>
       <c r="AC2" t="n">
-        <v>369.4825434639255</v>
+        <v>495.3891717069486</v>
       </c>
       <c r="AD2" t="n">
-        <v>298532.9565882268</v>
+        <v>400262.466272395</v>
       </c>
       <c r="AE2" t="n">
-        <v>408465.9615485414</v>
+        <v>547656.7646876411</v>
       </c>
       <c r="AF2" t="n">
         <v>1.338198848620193e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.51432291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>369482.5434639255</v>
+        <v>495389.1717069485</v>
       </c>
     </row>
   </sheetData>
@@ -3324,28 +3324,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>293.4840728084882</v>
+        <v>371.1223480101787</v>
       </c>
       <c r="AB2" t="n">
-        <v>401.5578560200708</v>
+        <v>507.78596930999</v>
       </c>
       <c r="AC2" t="n">
-        <v>363.2337378315051</v>
+        <v>459.3235890811278</v>
       </c>
       <c r="AD2" t="n">
-        <v>293484.0728084882</v>
+        <v>371122.3480101787</v>
       </c>
       <c r="AE2" t="n">
-        <v>401557.8560200708</v>
+        <v>507785.9693099901</v>
       </c>
       <c r="AF2" t="n">
         <v>9.813813017613386e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.07682291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>363233.7378315051</v>
+        <v>459323.5890811278</v>
       </c>
     </row>
     <row r="3">
@@ -3430,28 +3430,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>230.1258994572196</v>
+        <v>298.0210805413054</v>
       </c>
       <c r="AB3" t="n">
-        <v>314.868408075382</v>
+        <v>407.765590158766</v>
       </c>
       <c r="AC3" t="n">
-        <v>284.8178091293471</v>
+        <v>368.8490145366128</v>
       </c>
       <c r="AD3" t="n">
-        <v>230125.8994572196</v>
+        <v>298021.0805413054</v>
       </c>
       <c r="AE3" t="n">
-        <v>314868.408075382</v>
+        <v>407765.590158766</v>
       </c>
       <c r="AF3" t="n">
         <v>1.156961678399085e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.48567708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>284817.8091293471</v>
+        <v>368849.0145366128</v>
       </c>
     </row>
   </sheetData>
@@ -3727,28 +3727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>327.4070371369916</v>
+        <v>437.6470920757528</v>
       </c>
       <c r="AB2" t="n">
-        <v>447.9727523898924</v>
+        <v>598.8080590050844</v>
       </c>
       <c r="AC2" t="n">
-        <v>405.2188616355071</v>
+        <v>541.6586582860276</v>
       </c>
       <c r="AD2" t="n">
-        <v>327407.0371369916</v>
+        <v>437647.0920757528</v>
       </c>
       <c r="AE2" t="n">
-        <v>447972.7523898924</v>
+        <v>598808.0590050843</v>
       </c>
       <c r="AF2" t="n">
         <v>1.320640838587842e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.74739583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>405218.8616355071</v>
+        <v>541658.6582860276</v>
       </c>
     </row>
   </sheetData>
@@ -4024,28 +4024,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>237.6839254211115</v>
+        <v>314.2899904633736</v>
       </c>
       <c r="AB2" t="n">
-        <v>325.2096326357465</v>
+        <v>430.0254304477905</v>
       </c>
       <c r="AC2" t="n">
-        <v>294.1720817316736</v>
+        <v>388.9844069103348</v>
       </c>
       <c r="AD2" t="n">
-        <v>237683.9254211115</v>
+        <v>314289.9904633736</v>
       </c>
       <c r="AE2" t="n">
-        <v>325209.6326357465</v>
+        <v>430025.4304477905</v>
       </c>
       <c r="AF2" t="n">
         <v>1.222578487092481e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.2734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>294172.0817316736</v>
+        <v>388984.4069103348</v>
       </c>
     </row>
     <row r="3">
@@ -4130,28 +4130,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>237.0268312826771</v>
+        <v>313.6328963249392</v>
       </c>
       <c r="AB3" t="n">
-        <v>324.3105674465937</v>
+        <v>429.1263652586372</v>
       </c>
       <c r="AC3" t="n">
-        <v>293.3588220623272</v>
+        <v>388.1711472409883</v>
       </c>
       <c r="AD3" t="n">
-        <v>237026.8312826771</v>
+        <v>313632.8963249392</v>
       </c>
       <c r="AE3" t="n">
-        <v>324310.5674465937</v>
+        <v>429126.3652586372</v>
       </c>
       <c r="AF3" t="n">
         <v>1.228917400513264e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.1953125</v>
       </c>
       <c r="AH3" t="n">
-        <v>293358.8220623272</v>
+        <v>388171.1472409883</v>
       </c>
     </row>
   </sheetData>
@@ -4427,28 +4427,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>249.1263881240586</v>
+        <v>326.3351115915013</v>
       </c>
       <c r="AB2" t="n">
-        <v>340.8657149117381</v>
+        <v>446.5060965685351</v>
       </c>
       <c r="AC2" t="n">
-        <v>308.3339694886989</v>
+        <v>403.8921813872758</v>
       </c>
       <c r="AD2" t="n">
-        <v>249126.3881240587</v>
+        <v>326335.1115915013</v>
       </c>
       <c r="AE2" t="n">
-        <v>340865.7149117381</v>
+        <v>446506.0965685351</v>
       </c>
       <c r="AF2" t="n">
         <v>1.124252106553276e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.67708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>308333.9694886989</v>
+        <v>403892.1813872758</v>
       </c>
     </row>
     <row r="3">
@@ -4533,28 +4533,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>228.0904947173026</v>
+        <v>305.2650527659642</v>
       </c>
       <c r="AB3" t="n">
-        <v>312.0834775145094</v>
+        <v>417.6771125380438</v>
       </c>
       <c r="AC3" t="n">
-        <v>282.2986684325288</v>
+        <v>377.8145951309214</v>
       </c>
       <c r="AD3" t="n">
-        <v>228090.4947173026</v>
+        <v>305265.0527659642</v>
       </c>
       <c r="AE3" t="n">
-        <v>312083.4775145093</v>
+        <v>417677.1125380438</v>
       </c>
       <c r="AF3" t="n">
         <v>1.194861365888398e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.75260416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>282298.6684325287</v>
+        <v>377814.5951309214</v>
       </c>
     </row>
   </sheetData>
@@ -4830,28 +4830,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>335.1253864928136</v>
+        <v>432.7195708417447</v>
       </c>
       <c r="AB2" t="n">
-        <v>458.5333384880697</v>
+        <v>592.06600706582</v>
       </c>
       <c r="AC2" t="n">
-        <v>414.77156021835</v>
+        <v>535.5600583213173</v>
       </c>
       <c r="AD2" t="n">
-        <v>335125.3864928136</v>
+        <v>432719.5708417447</v>
       </c>
       <c r="AE2" t="n">
-        <v>458533.3384880697</v>
+        <v>592066.00706582</v>
       </c>
       <c r="AF2" t="n">
         <v>8.529711270539271e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.78255208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>414771.56021835</v>
+        <v>535560.0583213173</v>
       </c>
     </row>
     <row r="3">
@@ -4936,28 +4936,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>231.9442723384364</v>
+        <v>300.2167973681332</v>
       </c>
       <c r="AB3" t="n">
-        <v>317.3563860724115</v>
+        <v>410.7698667894217</v>
       </c>
       <c r="AC3" t="n">
-        <v>287.0683379982399</v>
+        <v>371.5665672221675</v>
       </c>
       <c r="AD3" t="n">
-        <v>231944.2723384364</v>
+        <v>300216.7973681332</v>
       </c>
       <c r="AE3" t="n">
-        <v>317356.3860724114</v>
+        <v>410769.8667894216</v>
       </c>
       <c r="AF3" t="n">
         <v>1.12394703693833e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.2578125</v>
       </c>
       <c r="AH3" t="n">
-        <v>287068.3379982399</v>
+        <v>371566.5672221674</v>
       </c>
     </row>
   </sheetData>
@@ -5233,28 +5233,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>236.3196507466517</v>
+        <v>312.4775866603032</v>
       </c>
       <c r="AB2" t="n">
-        <v>323.3429718386008</v>
+        <v>427.5456196068168</v>
       </c>
       <c r="AC2" t="n">
-        <v>292.483572421132</v>
+        <v>386.7412657355873</v>
       </c>
       <c r="AD2" t="n">
-        <v>236319.6507466518</v>
+        <v>312477.5866603032</v>
       </c>
       <c r="AE2" t="n">
-        <v>323342.9718386008</v>
+        <v>427545.6196068168</v>
       </c>
       <c r="AF2" t="n">
         <v>1.267575678619339e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.76171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>292483.5724211319</v>
+        <v>386741.2657355873</v>
       </c>
     </row>
   </sheetData>
@@ -5530,28 +5530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>257.9571321749478</v>
+        <v>342.4640472662871</v>
       </c>
       <c r="AB2" t="n">
-        <v>352.9483285070905</v>
+        <v>468.5744179171996</v>
       </c>
       <c r="AC2" t="n">
-        <v>319.2634354005694</v>
+        <v>423.8543331195074</v>
       </c>
       <c r="AD2" t="n">
-        <v>257957.1321749478</v>
+        <v>342464.0472662871</v>
       </c>
       <c r="AE2" t="n">
-        <v>352948.3285070905</v>
+        <v>468574.4179171997</v>
       </c>
       <c r="AF2" t="n">
         <v>1.319946437978883e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.20703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>319263.4354005695</v>
+        <v>423854.3331195074</v>
       </c>
     </row>
   </sheetData>
@@ -8936,28 +8936,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>282.6546243619759</v>
+        <v>366.375176731923</v>
       </c>
       <c r="AB2" t="n">
-        <v>386.7405268940061</v>
+        <v>501.2906801366647</v>
       </c>
       <c r="AC2" t="n">
-        <v>349.8305538009799</v>
+        <v>453.4482011903091</v>
       </c>
       <c r="AD2" t="n">
-        <v>282654.6243619759</v>
+        <v>366375.176731923</v>
       </c>
       <c r="AE2" t="n">
-        <v>386740.5268940061</v>
+        <v>501290.6801366647</v>
       </c>
       <c r="AF2" t="n">
         <v>1.341972431948902e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.01041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>349830.5538009799</v>
+        <v>453448.2011903091</v>
       </c>
     </row>
   </sheetData>
@@ -9233,28 +9233,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>384.0029338026525</v>
+        <v>511.6167847145169</v>
       </c>
       <c r="AB2" t="n">
-        <v>525.4097550425928</v>
+        <v>700.0166557859676</v>
       </c>
       <c r="AC2" t="n">
-        <v>475.2653854385496</v>
+        <v>633.2080486373012</v>
       </c>
       <c r="AD2" t="n">
-        <v>384002.9338026525</v>
+        <v>511616.784714517</v>
       </c>
       <c r="AE2" t="n">
-        <v>525409.7550425928</v>
+        <v>700016.6557859676</v>
       </c>
       <c r="AF2" t="n">
         <v>1.264819065955924e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.67317708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>475265.3854385496</v>
+        <v>633208.0486373012</v>
       </c>
     </row>
   </sheetData>
@@ -9530,28 +9530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>240.6862156877723</v>
+        <v>317.5482119990276</v>
       </c>
       <c r="AB2" t="n">
-        <v>329.3174986302883</v>
+        <v>434.4834728954615</v>
       </c>
       <c r="AC2" t="n">
-        <v>297.8878987611237</v>
+        <v>393.0169800437021</v>
       </c>
       <c r="AD2" t="n">
-        <v>240686.2156877723</v>
+        <v>317548.2119990276</v>
       </c>
       <c r="AE2" t="n">
-        <v>329317.4986302883</v>
+        <v>434483.4728954615</v>
       </c>
       <c r="AF2" t="n">
         <v>1.187463864079965e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.26041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>297887.8987611237</v>
+        <v>393016.9800437021</v>
       </c>
     </row>
     <row r="3">
@@ -9636,28 +9636,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>227.8272425015551</v>
+        <v>304.7565586205147</v>
       </c>
       <c r="AB3" t="n">
-        <v>311.7232842190556</v>
+        <v>416.9813684150614</v>
       </c>
       <c r="AC3" t="n">
-        <v>281.9728514796585</v>
+        <v>377.1852518505533</v>
       </c>
       <c r="AD3" t="n">
-        <v>227827.2425015551</v>
+        <v>304756.5586205147</v>
       </c>
       <c r="AE3" t="n">
-        <v>311723.2842190557</v>
+        <v>416981.3684150613</v>
       </c>
       <c r="AF3" t="n">
         <v>1.21190575438056e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.95442708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>281972.8514796585</v>
+        <v>377185.2518505533</v>
       </c>
     </row>
   </sheetData>
@@ -9933,28 +9933,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>308.8416281113516</v>
+        <v>406.1365852033892</v>
       </c>
       <c r="AB2" t="n">
-        <v>422.5707407129711</v>
+        <v>555.6939933568649</v>
       </c>
       <c r="AC2" t="n">
-        <v>382.2411823010838</v>
+        <v>502.659338552303</v>
       </c>
       <c r="AD2" t="n">
-        <v>308841.6281113516</v>
+        <v>406136.5852033892</v>
       </c>
       <c r="AE2" t="n">
-        <v>422570.7407129711</v>
+        <v>555693.9933568649</v>
       </c>
       <c r="AF2" t="n">
         <v>9.141128418822611e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.91666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>382241.1823010838</v>
+        <v>502659.338552303</v>
       </c>
     </row>
     <row r="3">
@@ -10039,28 +10039,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>231.3083021508025</v>
+        <v>299.3952838938204</v>
       </c>
       <c r="AB3" t="n">
-        <v>316.4862236046667</v>
+        <v>409.6458358112503</v>
       </c>
       <c r="AC3" t="n">
-        <v>286.2812226151358</v>
+        <v>370.5498121829654</v>
       </c>
       <c r="AD3" t="n">
-        <v>231308.3021508025</v>
+        <v>299395.2838938204</v>
       </c>
       <c r="AE3" t="n">
-        <v>316486.2236046668</v>
+        <v>409645.8358112503</v>
       </c>
       <c r="AF3" t="n">
         <v>1.138138405167991e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.38802083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>286281.2226151358</v>
+        <v>370549.8121829654</v>
       </c>
     </row>
   </sheetData>
@@ -10336,28 +10336,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>509.9866552481174</v>
+        <v>672.4192184609009</v>
       </c>
       <c r="AB2" t="n">
-        <v>697.7862407338032</v>
+        <v>920.0336397404701</v>
       </c>
       <c r="AC2" t="n">
-        <v>631.1905012673082</v>
+        <v>832.2269204389623</v>
       </c>
       <c r="AD2" t="n">
-        <v>509986.6552481174</v>
+        <v>672419.2184609008</v>
       </c>
       <c r="AE2" t="n">
-        <v>697786.2407338032</v>
+        <v>920033.6397404701</v>
       </c>
       <c r="AF2" t="n">
         <v>1.130840122756719e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.13671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>631190.5012673081</v>
+        <v>832226.9204389623</v>
       </c>
     </row>
   </sheetData>
@@ -10633,28 +10633,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>247.0390788196797</v>
+        <v>331.9928841455328</v>
       </c>
       <c r="AB2" t="n">
-        <v>338.0097662359008</v>
+        <v>454.2473105802699</v>
       </c>
       <c r="AC2" t="n">
-        <v>305.7505885461335</v>
+        <v>410.8945847985927</v>
       </c>
       <c r="AD2" t="n">
-        <v>247039.0788196797</v>
+        <v>331992.8841455328</v>
       </c>
       <c r="AE2" t="n">
-        <v>338009.7662359008</v>
+        <v>454247.3105802699</v>
       </c>
       <c r="AF2" t="n">
         <v>1.304081296582455e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.60807291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>305750.5885461335</v>
+        <v>410894.5847985927</v>
       </c>
     </row>
   </sheetData>
@@ -10930,28 +10930,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>236.4998321962084</v>
+        <v>312.8379305627036</v>
       </c>
       <c r="AB2" t="n">
-        <v>323.5895040469287</v>
+        <v>428.0386580313322</v>
       </c>
       <c r="AC2" t="n">
-        <v>292.7065759415072</v>
+        <v>387.1872492648507</v>
       </c>
       <c r="AD2" t="n">
-        <v>236499.8321962084</v>
+        <v>312837.9305627036</v>
       </c>
       <c r="AE2" t="n">
-        <v>323589.5040469287</v>
+        <v>428038.6580313322</v>
       </c>
       <c r="AF2" t="n">
         <v>1.249157419792233e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.44270833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>292706.5759415072</v>
+        <v>387187.2492648507</v>
       </c>
     </row>
     <row r="3">
@@ -11036,28 +11036,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>237.0305323877803</v>
+        <v>313.3686307542756</v>
       </c>
       <c r="AB3" t="n">
-        <v>324.315631461877</v>
+        <v>428.7647854462809</v>
       </c>
       <c r="AC3" t="n">
-        <v>293.3634027750994</v>
+        <v>387.844076098443</v>
       </c>
       <c r="AD3" t="n">
-        <v>237030.5323877803</v>
+        <v>313368.6307542755</v>
       </c>
       <c r="AE3" t="n">
-        <v>324315.631461877</v>
+        <v>428764.785446281</v>
       </c>
       <c r="AF3" t="n">
         <v>1.248772307110342e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.44270833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>293363.4027750994</v>
+        <v>387844.076098443</v>
       </c>
     </row>
   </sheetData>
